--- a/ddsw-practica/modifiacions.xlsx
+++ b/ddsw-practica/modifiacions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Classes a modifcar</t>
   </si>
@@ -97,6 +97,36 @@
   </si>
   <si>
     <t>getShared</t>
+  </si>
+  <si>
+    <t>Necessitem saber si un fitxer ha estat compartit</t>
+  </si>
+  <si>
+    <t>Afegir</t>
+  </si>
+  <si>
+    <t>startRandomPlayback</t>
+  </si>
+  <si>
+    <t>Farà un shuffle de la llista abans de reproduir-la</t>
+  </si>
+  <si>
+    <t>changeColorShared</t>
+  </si>
+  <si>
+    <t>Canvia el color del fitxer que ha estat compartit</t>
+  </si>
+  <si>
+    <t>btnPlaySelection</t>
+  </si>
+  <si>
+    <t>Botó que reproduirà els fitxers seleccionats</t>
+  </si>
+  <si>
+    <t>Crea una llista privada dels elements i s'inicia la reproducció de la llista</t>
+  </si>
+  <si>
+    <t>Si el tamany de la llista és 0, es reprodueix normal</t>
   </si>
 </sst>
 </file>
@@ -513,11 +543,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -612,23 +640,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -636,37 +667,80 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>21</v>
+      <c r="C16" t="s">
+        <v>20</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D24" t="s">
         <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
